--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/108.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/108.xlsx
@@ -479,13 +479,13 @@
         <v>-0.139372470933391</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.756219590546689</v>
+        <v>-1.757193121373213</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0799217220337633</v>
+        <v>0.07607481930130441</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2662271190079561</v>
+        <v>-0.2656494539904388</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1547737629101474</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.758435022459919</v>
+        <v>-1.759685580651793</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06451207483622956</v>
+        <v>0.06030314770587153</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2299900507973717</v>
+        <v>-0.2271395021686962</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.177351342795757</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.819449512668459</v>
+        <v>-1.820925942604239</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1008671944809116</v>
+        <v>0.09715723141200583</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2615302459499949</v>
+        <v>-0.2597185499413778</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2004403414958984</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.994538677664583</v>
+        <v>-1.996702953956372</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1651847638155003</v>
+        <v>0.1634171403422796</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2929476676111566</v>
+        <v>-0.2909596814609539</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2207207387594741</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.976532685926464</v>
+        <v>-1.972272603174664</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3253915780197268</v>
+        <v>0.326444596811877</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3126465169142347</v>
+        <v>-0.3110504615252359</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2354029435920571</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.860498357332859</v>
+        <v>-1.853737158197312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.441906769454889</v>
+        <v>0.443398939581882</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3203592106086081</v>
+        <v>-0.3176881001597608</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.245030524023218</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.590755552477318</v>
+        <v>-1.585295280145526</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6180221949181016</v>
+        <v>0.6210631998604546</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3522346718340683</v>
+        <v>-0.349615504016224</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2500718883083795</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.130650875091671</v>
+        <v>-1.124439008629458</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7108531206350522</v>
+        <v>0.7152115795819339</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3328884028141616</v>
+        <v>-0.3335904153422617</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2497267553208461</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5681381526455198</v>
+        <v>-0.5624370553881687</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6728657431615815</v>
+        <v>0.6745719798890715</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3159724193175431</v>
+        <v>-0.3163407397919274</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2412821906995038</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07717010832940925</v>
+        <v>-0.07258499062906035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6324055816485473</v>
+        <v>0.6335750778556737</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2702487378628794</v>
+        <v>-0.2707130735036631</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2183789997341687</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5758731108879118</v>
+        <v>0.5750750831934124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5882118467797879</v>
+        <v>0.5931338045720952</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2025281391880386</v>
+        <v>-0.2045239954338479</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1737498839105751</v>
       </c>
       <c r="E13" t="n">
-        <v>1.195762765353277</v>
+        <v>1.19773973336963</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4027294335257148</v>
+        <v>0.4058680276535884</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08412255078819439</v>
+        <v>-0.0839289464362744</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1005571298503304</v>
       </c>
       <c r="E14" t="n">
-        <v>1.781546573498298</v>
+        <v>1.779796264235411</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1421474199561434</v>
+        <v>0.1448201044241119</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0343759047398066</v>
+        <v>0.03288058657457094</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.002021270080462274</v>
       </c>
       <c r="E15" t="n">
-        <v>2.431721929876609</v>
+        <v>2.42789863743097</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.07596598370161421</v>
+        <v>-0.06940704602315426</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1677834693847677</v>
+        <v>0.1663290757166858</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1263484510235831</v>
       </c>
       <c r="E16" t="n">
-        <v>2.920130619101485</v>
+        <v>2.914245361606941</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.429168004425882</v>
+        <v>-0.4223194472291028</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3426711599333658</v>
+        <v>0.3422068242925821</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2666661613532615</v>
       </c>
       <c r="E17" t="n">
-        <v>3.436870078490651</v>
+        <v>3.431915066296797</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7444597746136228</v>
+        <v>-0.7349196447194194</v>
       </c>
       <c r="G17" t="n">
-        <v>0.505629359561626</v>
+        <v>0.5043433859395233</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4187957179862808</v>
       </c>
       <c r="E18" t="n">
-        <v>3.917410246128145</v>
+        <v>3.912474122163746</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.082321404981694</v>
+        <v>-1.072845809871464</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6260795988000398</v>
+        <v>0.6233990442364647</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.575880803670737</v>
       </c>
       <c r="E19" t="n">
-        <v>4.178242528738003</v>
+        <v>4.176688971865279</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.463502402596642</v>
+        <v>-1.449625850023256</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8382668204661003</v>
+        <v>0.8348511989728779</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7277410130756595</v>
       </c>
       <c r="E20" t="n">
-        <v>4.432068852238952</v>
+        <v>4.431149625072113</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.81072551168865</v>
+        <v>-1.791780617544674</v>
       </c>
       <c r="G20" t="n">
-        <v>1.026341643212956</v>
+        <v>1.023355728939848</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8639460945453988</v>
       </c>
       <c r="E21" t="n">
-        <v>4.643201481093741</v>
+        <v>4.644281258210953</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.188002941882772</v>
+        <v>-2.166286987075747</v>
       </c>
       <c r="G21" t="n">
-        <v>1.235149445825584</v>
+        <v>1.230724878075607</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9787505168631205</v>
       </c>
       <c r="E22" t="n">
-        <v>4.72961670487227</v>
+        <v>4.731639319443142</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.479121713415137</v>
+        <v>-2.453553346808729</v>
       </c>
       <c r="G22" t="n">
-        <v>1.39096317266226</v>
+        <v>1.38735709485536</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.071549477763178</v>
       </c>
       <c r="E23" t="n">
-        <v>4.789698588751438</v>
+        <v>4.791148260362156</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.685847875739845</v>
+        <v>-2.660831989845013</v>
       </c>
       <c r="G23" t="n">
-        <v>1.508586473558818</v>
+        <v>1.502982965486987</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.143674617217956</v>
       </c>
       <c r="E24" t="n">
-        <v>4.809466694895854</v>
+        <v>4.809391141978032</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.817092738112139</v>
+        <v>-2.79325421852004</v>
       </c>
       <c r="G24" t="n">
-        <v>1.566672501192177</v>
+        <v>1.559402106870889</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.197124651973753</v>
       </c>
       <c r="E25" t="n">
-        <v>4.872406997499304</v>
+        <v>4.87203867702492</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.012035006285229</v>
+        <v>-2.987363830577963</v>
       </c>
       <c r="G25" t="n">
-        <v>1.671708371175693</v>
+        <v>1.664669357665236</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.232367457230948</v>
       </c>
       <c r="E26" t="n">
-        <v>4.957685779472254</v>
+        <v>4.95702626546043</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.140508807994474</v>
+        <v>-3.116209100799833</v>
       </c>
       <c r="G26" t="n">
-        <v>1.708649025933499</v>
+        <v>1.703224956041497</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.248635574829715</v>
       </c>
       <c r="E27" t="n">
-        <v>4.911862934812949</v>
+        <v>4.913276403983877</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.202075778914589</v>
+        <v>-3.177629687941668</v>
       </c>
       <c r="G27" t="n">
-        <v>1.727353095151915</v>
+        <v>1.721115257374201</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.245080503667715</v>
       </c>
       <c r="E28" t="n">
-        <v>4.922031098336552</v>
+        <v>4.925663934468513</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.221195389181029</v>
+        <v>-3.197681117527918</v>
       </c>
       <c r="G28" t="n">
-        <v>1.751254575508866</v>
+        <v>1.746356228003378</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.221723052236251</v>
       </c>
       <c r="E29" t="n">
-        <v>4.895342030115777</v>
+        <v>4.897833702384796</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.135428661280475</v>
+        <v>-3.112862736147948</v>
       </c>
       <c r="G29" t="n">
-        <v>1.686307398525757</v>
+        <v>1.682512438424301</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.182763424851801</v>
       </c>
       <c r="E30" t="n">
-        <v>4.807725829747696</v>
+        <v>4.808342845243246</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.10565215455327</v>
+        <v>-3.08389448823953</v>
       </c>
       <c r="G30" t="n">
-        <v>1.62954354695429</v>
+        <v>1.623329319463395</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.133913850709735</v>
       </c>
       <c r="E31" t="n">
-        <v>4.663120693073801</v>
+        <v>4.664781283246773</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.052158327706305</v>
+        <v>-3.033580967027154</v>
       </c>
       <c r="G31" t="n">
-        <v>1.570089696704521</v>
+        <v>1.563508722758363</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.081006380603444</v>
       </c>
       <c r="E32" t="n">
-        <v>4.641901341299547</v>
+        <v>4.64719319358536</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.94024950322963</v>
+        <v>-2.922316703380651</v>
       </c>
       <c r="G32" t="n">
-        <v>1.532846830275425</v>
+        <v>1.528118476835038</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.028419900386263</v>
       </c>
       <c r="E33" t="n">
-        <v>4.48076270777551</v>
+        <v>4.485492635235019</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.860503398468051</v>
+        <v>-2.842267599938222</v>
       </c>
       <c r="G33" t="n">
-        <v>1.453056652978451</v>
+        <v>1.447306761128339</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9765482894003861</v>
       </c>
       <c r="E34" t="n">
-        <v>4.34963117477995</v>
+        <v>4.357051100917761</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.76634085257448</v>
+        <v>-2.747914597730974</v>
       </c>
       <c r="G34" t="n">
-        <v>1.389655162772459</v>
+        <v>1.382340695915775</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9255117009072914</v>
       </c>
       <c r="E35" t="n">
-        <v>4.145433674173612</v>
+        <v>4.15366107212065</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.743856776436261</v>
+        <v>-2.725240065279077</v>
       </c>
       <c r="G35" t="n">
-        <v>1.306660282544516</v>
+        <v>1.300466517302198</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8736620237344804</v>
       </c>
       <c r="E36" t="n">
-        <v>3.915159398784685</v>
+        <v>3.925665976419367</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.663609346584549</v>
+        <v>-2.648113128335343</v>
       </c>
       <c r="G36" t="n">
-        <v>1.312901268360474</v>
+        <v>1.307289890193037</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8202191522771142</v>
       </c>
       <c r="E37" t="n">
-        <v>3.695187078544671</v>
+        <v>3.704207782128845</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.589797293910274</v>
+        <v>-2.579027855082335</v>
       </c>
       <c r="G37" t="n">
-        <v>1.205878986245876</v>
+        <v>1.200245571810741</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7653217025849812</v>
       </c>
       <c r="E38" t="n">
-        <v>3.482365527172727</v>
+        <v>3.490462281532697</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.49409457030651</v>
+        <v>-2.485587783965441</v>
       </c>
       <c r="G38" t="n">
-        <v>1.119046647400202</v>
+        <v>1.112560114601322</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7087635618475866</v>
       </c>
       <c r="E39" t="n">
-        <v>3.235359428524373</v>
+        <v>3.245061682388071</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.444193442103915</v>
+        <v>-2.434983856225184</v>
       </c>
       <c r="G39" t="n">
-        <v>1.040918634295321</v>
+        <v>1.035033376800778</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6519809175228688</v>
       </c>
       <c r="E40" t="n">
-        <v>3.025940906492681</v>
+        <v>3.03546372217655</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.395342184655227</v>
+        <v>-2.388093039592076</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9884487068867629</v>
+        <v>0.9838919215305973</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.595212400201374</v>
       </c>
       <c r="E41" t="n">
-        <v>2.804852606695665</v>
+        <v>2.813383790333114</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.379430425357998</v>
+        <v>-2.372658208088601</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9615565901993406</v>
+        <v>0.9542736037250824</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5382192693808057</v>
       </c>
       <c r="E42" t="n">
-        <v>2.537456664349983</v>
+        <v>2.54249982161463</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.350531434290917</v>
+        <v>-2.344212534528455</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9040608197364691</v>
+        <v>0.8989074811333306</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4809782637160207</v>
       </c>
       <c r="E43" t="n">
-        <v>2.371317372077574</v>
+        <v>2.376113408340177</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.346921421436214</v>
+        <v>-2.341516239773668</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8589494317199914</v>
+        <v>0.8535379539809597</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4226243689334161</v>
       </c>
       <c r="E44" t="n">
-        <v>2.16328870892999</v>
+        <v>2.16787540064946</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.295889360494964</v>
+        <v>-2.290099331157259</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7617033823677923</v>
+        <v>0.7568821617992483</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3630409201265457</v>
       </c>
       <c r="E45" t="n">
-        <v>2.025618700504547</v>
+        <v>2.029819757539298</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.218550717979415</v>
+        <v>-2.212036639845912</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7033182911013859</v>
+        <v>0.6980988436951528</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3022382607806247</v>
       </c>
       <c r="E46" t="n">
-        <v>1.873894275345009</v>
+        <v>1.875208581311295</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.150287869717286</v>
+        <v>-2.145043238005112</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6499055262391683</v>
+        <v>0.6468440590482385</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2404516977679663</v>
       </c>
       <c r="E47" t="n">
-        <v>1.726550345400052</v>
+        <v>1.72919784556208</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.101287867461635</v>
+        <v>-2.095733153982565</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6063303808850801</v>
+        <v>0.6012746314674623</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1789189629146264</v>
       </c>
       <c r="E48" t="n">
-        <v>1.594841147386974</v>
+        <v>1.595007993413832</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.941571360213694</v>
+        <v>-1.935967852141863</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4992262497761748</v>
+        <v>0.4912963414430619</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1184116930531432</v>
       </c>
       <c r="E49" t="n">
-        <v>1.494610757780789</v>
+        <v>1.493841062430473</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.870930169059279</v>
+        <v>-1.867135995967384</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4360435482280439</v>
+        <v>0.4283607608969753</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06062449445313666</v>
       </c>
       <c r="E50" t="n">
-        <v>1.44030080201943</v>
+        <v>1.43918797050067</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.75463612731066</v>
+        <v>-1.75066645108674</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3750298450290653</v>
+        <v>0.3669740151662484</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.007424017992315995</v>
       </c>
       <c r="E51" t="n">
-        <v>1.313426990746988</v>
+        <v>1.310474130875428</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.701272157041203</v>
+        <v>-1.699050429051487</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3273244735006841</v>
+        <v>0.319131703974314</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.039907559427005</v>
       </c>
       <c r="E52" t="n">
-        <v>1.187571569846028</v>
+        <v>1.179906096725293</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.646309770354065</v>
+        <v>-1.642750126111243</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2853721418606568</v>
+        <v>0.2766505019095298</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08038828205373638</v>
       </c>
       <c r="E53" t="n">
-        <v>1.150789891019473</v>
+        <v>1.143626529998434</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.623296036781527</v>
+        <v>-1.620371509254151</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2519163654374107</v>
+        <v>0.2449954033610516</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1145042163057408</v>
       </c>
       <c r="E54" t="n">
-        <v>1.056990943542923</v>
+        <v>1.047545254795997</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.494701035599943</v>
+        <v>-1.490919454661018</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2177302441418811</v>
+        <v>0.2096712662408216</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1430570304930914</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9994857289653233</v>
+        <v>0.9895867227114633</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.462391145097004</v>
+        <v>-1.456424825617714</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1917368923727216</v>
+        <v>0.1858579309546635</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1674570732079319</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9271406621121011</v>
+        <v>0.9174336861910397</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.466112126299759</v>
+        <v>-1.460536163562551</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1999123476887573</v>
+        <v>0.1952815834338907</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.188355179866091</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8894759585584969</v>
+        <v>0.878593190353824</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.471061629426689</v>
+        <v>-1.46577449919824</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1583897232688452</v>
+        <v>0.154572726899691</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2066868991010913</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8513390492685026</v>
+        <v>0.8394331686349842</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.46778294759702</v>
+        <v>-1.461386133888054</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1462556098627382</v>
+        <v>0.1427203629162968</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2233366236873401</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8180186384896884</v>
+        <v>0.8072523476999917</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.477296319166161</v>
+        <v>-1.470472946275323</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1350485937190773</v>
+        <v>0.131267799789713</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2393199116949046</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8107167637859745</v>
+        <v>0.799726962281053</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.51386550541134</v>
+        <v>-1.50862559575653</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1321917490139165</v>
+        <v>0.1285494687672268</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2559247461892301</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8513878438612629</v>
+        <v>0.840390172260735</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.505145439479334</v>
+        <v>-1.498928850959757</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1253164334920751</v>
+        <v>0.125064590432667</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2738858103325689</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8267229642304811</v>
+        <v>0.8168459942443194</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.539366976205093</v>
+        <v>-1.534610290420522</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1425031482775573</v>
+        <v>0.1402885033738873</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2931673738694545</v>
       </c>
       <c r="E63" t="n">
-        <v>0.791032080654988</v>
+        <v>0.7832690183487331</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.582579310151721</v>
+        <v>-1.575645755922392</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1231442871046802</v>
+        <v>0.1213199989430927</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3132304438665344</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7658556448097835</v>
+        <v>0.7589614410584865</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.570323210263713</v>
+        <v>-1.562837175322807</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1101885357172542</v>
+        <v>0.1073096547443953</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3334929671576838</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7407767981500997</v>
+        <v>0.7351024592178107</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.641082452852225</v>
+        <v>-1.63518302918559</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08903529274609429</v>
+        <v>0.08630436957063758</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.3537992450888527</v>
       </c>
       <c r="E66" t="n">
-        <v>0.694461285505827</v>
+        <v>0.6925819066749939</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.65556185474907</v>
+        <v>-1.64934133118169</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07630620011213562</v>
+        <v>0.0723727263280052</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3735402013539664</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6839720220814791</v>
+        <v>0.678239444441702</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.729458117446334</v>
+        <v>-1.724359082502881</v>
       </c>
       <c r="G67" t="n">
-        <v>0.06995818099592994</v>
+        <v>0.06794028848242246</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3914590981251124</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6828623386009621</v>
+        <v>0.6780442660706607</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.752792163910056</v>
+        <v>-1.746255262499295</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07381767588135923</v>
+        <v>0.07158729078647616</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4063720976374066</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6778821421011668</v>
+        <v>0.6727445436892413</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.808170878654779</v>
+        <v>-1.802254140777809</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08619891028951045</v>
+        <v>0.08321457003552434</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4167230527216999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6092753706610337</v>
+        <v>0.6043691530599394</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.892237665904327</v>
+        <v>-1.886600316421388</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07703497096529784</v>
+        <v>0.07393415329633549</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4217534153133175</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5335257004484381</v>
+        <v>0.5264300222496147</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.953784174575866</v>
+        <v>-1.946591694201082</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0645734615819603</v>
+        <v>0.06157023309851858</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4211051032514257</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4420799115582321</v>
+        <v>0.4344333266669533</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.998055036381569</v>
+        <v>-1.992845820099624</v>
       </c>
       <c r="G72" t="n">
-        <v>0.07271586249644875</v>
+        <v>0.07166126968517729</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4146214999537782</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3935591981250171</v>
+        <v>0.3852121747247595</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.090058028040715</v>
+        <v>-2.084820479414587</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06727447839411227</v>
+        <v>0.06724929408817146</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4030310966930721</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2853626977459291</v>
+        <v>0.2740643884932327</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.10621926936867</v>
+        <v>-2.099397470496953</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03802448106298159</v>
+        <v>0.03651814476389683</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3872990894995884</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2092856315561029</v>
+        <v>0.197921213500312</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.12837673653922</v>
+        <v>-2.121441608290769</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04111270657897354</v>
+        <v>0.03891852392388038</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3685225314551119</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1772417502846635</v>
+        <v>0.1663101874872303</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.186308510298692</v>
+        <v>-2.179065661312027</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02961134885962942</v>
+        <v>0.02849222126438463</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3473475601932514</v>
       </c>
       <c r="E77" t="n">
-        <v>0.07002901185638848</v>
+        <v>0.05568025354661141</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.178648546244882</v>
+        <v>-2.171471019051751</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02790353811301817</v>
+        <v>0.0275147553900569</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3234833439447778</v>
       </c>
       <c r="E78" t="n">
-        <v>0.05707640850720511</v>
+        <v>0.03991015597029982</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.170268468443077</v>
+        <v>-2.161539745405904</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05608949851814959</v>
+        <v>0.05626578865973526</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2963617004293549</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00666844614755059</v>
+        <v>-0.01185933292927981</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.184500749337878</v>
+        <v>-2.175564255776693</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0490284487399947</v>
+        <v>0.04869160864803635</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2651328753860526</v>
       </c>
       <c r="E80" t="n">
-        <v>0.03144665515506602</v>
+        <v>0.009972312283160733</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.23292151255689</v>
+        <v>-2.223142131756249</v>
       </c>
       <c r="G80" t="n">
-        <v>0.09071477114852211</v>
+        <v>0.08812236165573988</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2300301391079907</v>
       </c>
       <c r="E81" t="n">
-        <v>0.04757090703367026</v>
+        <v>0.02685996343559581</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.228448150214154</v>
+        <v>-2.219835904591957</v>
       </c>
       <c r="G81" t="n">
-        <v>0.08853790270376326</v>
+        <v>0.08527338704618563</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1915397900294009</v>
       </c>
       <c r="E82" t="n">
-        <v>0.09181501051431129</v>
+        <v>0.07407738903637384</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.185063461173743</v>
+        <v>-2.175384817596865</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06547694855758689</v>
+        <v>0.06097525387066692</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1503015246488659</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2161814093265212</v>
+        <v>0.1995880997497694</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.144721351094806</v>
+        <v>-2.136299561786287</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09001905469690721</v>
+        <v>0.08590142067558461</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1071560497270203</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2947359816132747</v>
+        <v>0.2753204557520307</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.050200715851139</v>
+        <v>-2.043265587602689</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1282252208282388</v>
+        <v>0.1247686748378625</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.06272412578698347</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4366180652073187</v>
+        <v>0.4184208301459614</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.90256323134006</v>
+        <v>-1.895114972858065</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1122772590912202</v>
+        <v>0.1089356164966989</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.01832996034633221</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6313761731432167</v>
+        <v>0.614726198878098</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.76424472703664</v>
+        <v>-1.756431296118504</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1858783932032404</v>
+        <v>0.1834481076799521</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02390714669766567</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8720137904267871</v>
+        <v>0.8555464023797393</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.547862744412313</v>
+        <v>-1.541635924768448</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1889980991016584</v>
+        <v>0.1864717984119708</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06230305180599759</v>
       </c>
       <c r="E88" t="n">
-        <v>1.042240810357214</v>
+        <v>1.027301794876949</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.382031172878119</v>
+        <v>-1.376888852408829</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2052057739936916</v>
+        <v>0.2015745118808508</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.09610969013959948</v>
       </c>
       <c r="E89" t="n">
-        <v>1.234149943683558</v>
+        <v>1.222319615967862</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.18567464852454</v>
+        <v>-1.183654394982351</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2456029747418737</v>
+        <v>0.244494865280478</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1257578817193802</v>
       </c>
       <c r="E90" t="n">
-        <v>1.34361038141705</v>
+        <v>1.333605915882063</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9222609745557485</v>
+        <v>-0.9223711558942396</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2341504116152899</v>
+        <v>0.233308311385394</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1528299003233347</v>
       </c>
       <c r="E91" t="n">
-        <v>1.490573398734653</v>
+        <v>1.482068973422265</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6209134397636106</v>
+        <v>-0.6233547434207479</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1554384374164064</v>
+        <v>0.1534394331323545</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1771608548661355</v>
       </c>
       <c r="E92" t="n">
-        <v>1.514418214403237</v>
+        <v>1.507314666108807</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4096470192835109</v>
+        <v>-0.4113013133799979</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1495248475776797</v>
+        <v>0.1509477608633355</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1972246785949893</v>
       </c>
       <c r="E93" t="n">
-        <v>1.562125159950739</v>
+        <v>1.554358949606242</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2038204088866265</v>
+        <v>-0.2061169027846042</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1231930816974405</v>
+        <v>0.1231883596400766</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2109493467008041</v>
       </c>
       <c r="E94" t="n">
-        <v>1.516286575100221</v>
+        <v>1.5066047834851</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0118372966615816</v>
+        <v>-0.01560707245709674</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1134499033365892</v>
+        <v>0.1142542271075739</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.2157136055692025</v>
       </c>
       <c r="E95" t="n">
-        <v>1.522418953596808</v>
+        <v>1.512055611702164</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1454261017858127</v>
+        <v>0.1416972504874514</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05348607089151824</v>
+        <v>0.05524582426913242</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.2097282146788342</v>
       </c>
       <c r="E96" t="n">
-        <v>1.448079604516898</v>
+        <v>1.437404606836237</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2635625329159145</v>
+        <v>0.261774447194117</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01051512059968902</v>
+        <v>-0.009588023337242913</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1935628006150499</v>
       </c>
       <c r="E97" t="n">
-        <v>1.399913045385976</v>
+        <v>1.389612664256184</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2890222922029532</v>
+        <v>0.2867620007447654</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0324443549976502</v>
+        <v>-0.02972602397516391</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1691590182925608</v>
       </c>
       <c r="E98" t="n">
-        <v>1.261654353809166</v>
+        <v>1.250899081153318</v>
       </c>
       <c r="F98" t="n">
-        <v>0.334705049160463</v>
+        <v>0.3328240963105087</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.09042807138812493</v>
+        <v>-0.08947106776237412</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1427414750205189</v>
       </c>
       <c r="E99" t="n">
-        <v>1.169179156413629</v>
+        <v>1.16225819433727</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3549044365441147</v>
+        <v>0.3527433082905689</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09494078420889401</v>
+        <v>-0.09344546604365836</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1141629717213275</v>
       </c>
       <c r="E100" t="n">
-        <v>1.063834778682338</v>
+        <v>1.058009333914404</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3736541523170486</v>
+        <v>0.3720014322396828</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.146146774263048</v>
+        <v>-0.1455297587674981</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0861186374250137</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9607947649446311</v>
+        <v>0.9554556920851792</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3462300171666267</v>
+        <v>0.344750439192604</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1550588705278525</v>
+        <v>-0.1556853301381302</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.04790384805452827</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9188770617252725</v>
+        <v>0.9153433887979524</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3161599558732983</v>
+        <v>0.315854596163766</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.18397832384351</v>
+        <v>-0.1854185513395001</v>
       </c>
     </row>
   </sheetData>
